--- a/output/inference_results/test_sheets/batch_004/test_sheet (44).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (44).xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.0~50.0 U/L</t>
+          <t>9.0-50.0</t>
         </is>
       </c>
     </row>
@@ -483,7 +483,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.0~40.0U/L</t>
+          <t>15.0-40.0</t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>总阳红素</t>
+          <t>总胆红素</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.0~22.0umol/1</t>
+          <t>5.0-22.0</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.7~7.1 umol/1</t>
+          <t>1.7-7.1</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>65.0~85.0g/L</t>
+          <t>65.0-85.0</t>
         </is>
       </c>
     </row>
@@ -571,7 +571,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.0~55.0g/L</t>
+          <t>40.0-55.0</t>
         </is>
       </c>
     </row>
@@ -588,12 +588,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>31.20→</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>20.00~30.00g/L</t>
+          <t>20.00-30.00</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>白蛋白比值</t>
+          <t>载脂蛋白比值</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.20~2.40</t>
+          <t>1.20-2.40</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>45.0~125.0U/L</t>
+          <t>45.0-125.0</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.9~6.1 mmol/L</t>
+          <t>3.9-6.1</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.00~6.00mmol/L</t>
+          <t>3.00-6.00</t>
         </is>
       </c>
     </row>
@@ -693,13 +693,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>甘油三脂</t>
+          <t>甘油三酯</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.340.50~1.70mmol/L</t>
+          <t>340.50-1.70</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>高密度脂蛋白胆固醇1.44</t>
+          <t>高密度脂蛋白胆固醇</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>高密度脂蛋白胆固醇1.44</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.80~2.00mmol/L</t>
+          <t>0.80-2.00</t>
         </is>
       </c>
     </row>
@@ -733,117 +733,65 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>低密度脂蛋白胆固醇1.8</t>
+          <t>低密度脂蛋白胆固醇</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>低密度脂蛋白胆固醇1.8</t>
+          <t>1.8</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.1~3.1mmol/L</t>
+          <t>2.1-3.1</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>9.0~50.0 U/L</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15.0~40.0U/L</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>5.0~22.0umol/1</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>1.7~7.1 umol/1</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>65.0~85.0g/L</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>40.0~55.0g/L</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20.00~30.00g/L</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1.20~2.40</t>
+          <t>.20~2.</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>45.0~125.0U/L</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>3.9~6.1 mmol/L</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>3.00~6.00mmol/L</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>0.340.50~1.70mmol/L</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>0.80~2.00mmol/L</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2.1~3.1mmol/L</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
